--- a/ThesaurusJ.xlsx
+++ b/ThesaurusJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\ariel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\investigacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5730EAC-DBB3-4B3B-A0B5-B122434878A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D7CE9-AB10-4F02-B4E5-1C3022C39942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -170,11 +170,6 @@
     <t>http://revistasbolivianas.umsa.bo/pdf/rpgi/n1/n1_a23.pdf</t>
   </si>
   <si>
-    <t>Modelo Teórico para la Identificacion del Antipatron
-“Stovepipe System” en la Etapa de la
-Implementacion de una Arquitectura de Software</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Identificacion del Antipatron </t>
   </si>
   <si>
@@ -224,10 +219,6 @@
     <t>"arquitectura de software" and "codigo limpio" and "microservicios"</t>
   </si>
   <si>
-    <t>Arquitectura basada en Microservicios y DevOps para una
-ingeniería de software continua</t>
-  </si>
-  <si>
     <t>Arquitectura basada en Microservicios</t>
   </si>
   <si>
@@ -271,11 +262,6 @@
     <t>aruitectura de software, procesamiento de datos por lotes</t>
   </si>
   <si>
-    <t xml:space="preserve">Lenguajes de Patrones de Arquitectura de
-Software: Una Aproximación Al Estado
-del Arte </t>
-  </si>
-  <si>
     <t>https://www.redalyc.org/pdf/849/84933912003.pdf</t>
   </si>
   <si>
@@ -437,27 +423,64 @@
     <t>Google academico</t>
   </si>
   <si>
-    <t>Arquitectura basada en micro-servicios para 
-aplicaciones web</t>
-  </si>
-  <si>
     <t>Arquitecturas de Software basadas en Microservicios y Diseño 
 guiado por el dominio</t>
-  </si>
-  <si>
-    <t>https://revistasinvestigacion.unmsm.edu.pe/index.php/rpcsis/article/download/24855/19361/90262</t>
   </si>
   <si>
     <t>Herramienta para el modelado y generación de código de 
 Arquitecturas de Software basadas en Microservicios y Diseño 
 guiado por el dominio (DDD)</t>
+  </si>
+  <si>
+    <t>Revisión de elementos conceptuales para la representación de las arquitecturas de referencias de software</t>
+  </si>
+  <si>
+    <t>Arquitectura basada en microservicios para aplicaciones web</t>
+  </si>
+  <si>
+    <t>https://revistasinvestigacion.unmsm.edu.pe/index.php/rpcsis/article/view/24855</t>
+  </si>
+  <si>
+    <t>Lenguajes de Patrones de Arquitectura de Software: Una Aproximación Al Estado del Arte</t>
+  </si>
+  <si>
+    <t>Modelo Teórico para la Identificacion del Anti-patrón “Stovepipe System” en la Etapa de la Implementación de una Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>Arquitectura basada en Microservicios y DevOps para una ingeniería de software continua</t>
+  </si>
+  <si>
+    <t>RADS: Una herramienta para reutilizar estrategias en
+diseños de arquitecturas de software.</t>
+  </si>
+  <si>
+    <t>Integración de arquitectura de software en el ciclo de vida de las metodologías ágiles</t>
+  </si>
+  <si>
+    <t>https://revistas.udistrital.edu.co/index.php/tia/article/view/9687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dialnet.unirioja.es/servlet/articulo?codigo=4786655
+</t>
+  </si>
+  <si>
+    <t>xasasdasd</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/57164</t>
+  </si>
+  <si>
+    <t>Arquitectura de Microservicios</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/62077</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,13 +514,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,13 +668,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697ED96-0B89-4A16-B6F4-FE6B83B12F2F}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H2:H30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="58" zoomScaleNormal="115" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1062,7 @@
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="4">
@@ -1079,7 +1092,7 @@
       <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="4">
@@ -1109,7 +1122,7 @@
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4">
@@ -1139,7 +1152,7 @@
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="10">
@@ -1169,7 +1182,7 @@
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="4">
@@ -1199,8 +1212,8 @@
       <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>125</v>
+      <c r="H7" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="I7" s="4">
         <v>19900</v>
@@ -1214,29 +1227,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
         <v>45314</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>58</v>
+      <c r="H8" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="I8" s="4">
         <v>51</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1244,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>41</v>
@@ -1257,14 +1270,14 @@
       <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>43</v>
+      <c r="H9" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="I9" s="4">
         <v>1160</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1272,29 +1285,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>2018</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>47</v>
+      <c r="H10" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="I10" s="4">
         <v>22</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1302,29 +1315,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>52</v>
+      <c r="H11" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="I11" s="4">
         <v>23</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1347,7 +1360,7 @@
       <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="4">
@@ -1362,23 +1375,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="14">
         <v>44196</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>60</v>
+      <c r="H13" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="I13" s="15">
         <v>2140</v>
@@ -1392,23 +1405,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>63</v>
+      <c r="H14" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="4">
         <v>2140</v>
@@ -1422,23 +1435,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="11">
         <v>45474</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>93</v>
+      <c r="H15" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="I15" s="10">
         <v>10200</v>
@@ -1452,29 +1465,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>67</v>
+      <c r="H16" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="4">
         <v>2140</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1482,29 +1495,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
         <v>2021</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>71</v>
+      <c r="H17" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="I17" s="4">
         <v>2140</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1512,23 +1525,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>75</v>
+      <c r="H18" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="I18" s="4">
         <v>2140</v>
@@ -1542,29 +1555,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11">
         <v>45226</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>80</v>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="I19" s="4">
         <v>2140</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1572,29 +1585,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="11">
         <v>44071</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>85</v>
+      <c r="H20" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="I20" s="4">
         <v>2140</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1602,29 +1615,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="29" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="1">
         <v>2140</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1632,29 +1645,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="29" t="s">
         <v>95</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="I22" s="10">
         <v>10100</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1662,23 +1675,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11">
         <v>44071</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="I23" s="4">
         <v>308</v>
@@ -1692,29 +1705,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4">
         <v>2015</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1737,8 +1750,8 @@
       <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="29" t="s">
-        <v>15</v>
+      <c r="H25" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="I25" s="4">
         <v>620</v>
@@ -1755,20 +1768,20 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="11">
         <v>38530</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="I26" s="4">
         <v>72</v>
@@ -1785,18 +1798,18 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="I27" s="10">
         <v>13900</v>
@@ -1810,23 +1823,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11">
         <v>44982</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="I28" s="4">
         <v>478</v>
@@ -1840,23 +1853,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="24">
         <v>44634</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>131</v>
+      <c r="F29" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="I29" s="26">
         <v>308</v>
@@ -1870,22 +1883,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="24">
         <v>43447</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>129</v>
       </c>
       <c r="I30" s="26">
@@ -1895,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -1903,13 +1916,17 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -1917,13 +1934,17 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -1931,13 +1952,17 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -1945,9 +1970,13 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="16"/>
+      <c r="F34" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
@@ -2016,7 +2045,9 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -2139,9 +2170,14 @@
     <hyperlink ref="F28" r:id="rId26" xr:uid="{29FFC405-1C16-4F29-B5F9-DE198DFCAD30}"/>
     <hyperlink ref="F27" r:id="rId27" xr:uid="{93E6BFF0-367D-4A1F-BF8B-197D372B02A0}"/>
     <hyperlink ref="F30" r:id="rId28" xr:uid="{70EDE3D6-606F-49BE-9CCE-84E13475A06E}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{C9A6AFB3-1193-4B42-A787-3A24381108A4}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{12E41A35-A429-438C-B8ED-74FE61008A25}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{F019D75B-AB35-4475-8979-1C3B306E60E3}"/>
+    <hyperlink ref="F34" r:id="rId32" xr:uid="{CF3DE31C-A838-4626-A0FE-9F9C3C5872D8}"/>
+    <hyperlink ref="F32" r:id="rId33" xr:uid="{AB8E20FA-396F-4E4D-8385-70DBB27F55A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="portrait" r:id="rId29"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId34"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="44" man="1"/>
   </colBreaks>
